--- a/ID3_bagging_nonImput_recall_2.xlsx
+++ b/ID3_bagging_nonImput_recall_2.xlsx
@@ -512,40 +512,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29.63</v>
+      </c>
+      <c r="D2" t="n">
         <v>33.33</v>
       </c>
-      <c r="C2" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>37.04</v>
-      </c>
       <c r="E2" t="n">
-        <v>33.33</v>
+        <v>44.44</v>
       </c>
       <c r="F2" t="n">
         <v>29.63</v>
       </c>
       <c r="G2" t="n">
-        <v>29.63</v>
+        <v>40.74</v>
       </c>
       <c r="H2" t="n">
-        <v>29.63</v>
+        <v>37.04</v>
       </c>
       <c r="I2" t="n">
+        <v>33.33</v>
+      </c>
+      <c r="J2" t="n">
         <v>37.04</v>
       </c>
-      <c r="J2" t="n">
-        <v>29.63</v>
-      </c>
       <c r="K2" t="n">
-        <v>29.63</v>
+        <v>33.33</v>
       </c>
       <c r="L2" t="n">
-        <v>29.63</v>
+        <v>33.33</v>
       </c>
       <c r="M2" t="n">
-        <v>40.74</v>
+        <v>37.04</v>
       </c>
       <c r="N2" t="n">
         <v>33.33</v>
@@ -561,25 +561,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11.11</v>
+        <v>22.22</v>
       </c>
       <c r="C3" t="n">
-        <v>18.52</v>
+        <v>22.22</v>
       </c>
       <c r="D3" t="n">
         <v>18.52</v>
       </c>
       <c r="E3" t="n">
-        <v>18.52</v>
+        <v>22.22</v>
       </c>
       <c r="F3" t="n">
-        <v>22.22</v>
+        <v>14.81</v>
       </c>
       <c r="G3" t="n">
-        <v>18.52</v>
+        <v>22.22</v>
       </c>
       <c r="H3" t="n">
-        <v>18.52</v>
+        <v>22.22</v>
       </c>
       <c r="I3" t="n">
         <v>22.22</v>
@@ -588,16 +588,16 @@
         <v>22.22</v>
       </c>
       <c r="K3" t="n">
-        <v>18.52</v>
+        <v>14.81</v>
       </c>
       <c r="L3" t="n">
-        <v>18.52</v>
+        <v>14.81</v>
       </c>
       <c r="M3" t="n">
-        <v>22.22</v>
+        <v>18.52</v>
       </c>
       <c r="N3" t="n">
-        <v>22.22</v>
+        <v>18.52</v>
       </c>
       <c r="O3" t="n">
         <v>18.52</v>
@@ -610,19 +610,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="C4" t="n">
         <v>23.08</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30.77</v>
       </c>
       <c r="D4" t="n">
         <v>23.08</v>
       </c>
       <c r="E4" t="n">
-        <v>30.77</v>
+        <v>26.92</v>
       </c>
       <c r="F4" t="n">
-        <v>15.38</v>
+        <v>23.08</v>
       </c>
       <c r="G4" t="n">
         <v>26.92</v>
@@ -631,25 +631,25 @@
         <v>23.08</v>
       </c>
       <c r="I4" t="n">
-        <v>26.92</v>
+        <v>19.23</v>
       </c>
       <c r="J4" t="n">
         <v>23.08</v>
       </c>
       <c r="K4" t="n">
-        <v>23.08</v>
+        <v>15.38</v>
       </c>
       <c r="L4" t="n">
-        <v>26.92</v>
+        <v>19.23</v>
       </c>
       <c r="M4" t="n">
         <v>15.38</v>
       </c>
       <c r="N4" t="n">
-        <v>19.23</v>
+        <v>23.08</v>
       </c>
       <c r="O4" t="n">
-        <v>19.23</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="5">
@@ -662,40 +662,40 @@
         <v>14.81</v>
       </c>
       <c r="C5" t="n">
-        <v>14.81</v>
+        <v>11.11</v>
       </c>
       <c r="D5" t="n">
-        <v>14.81</v>
+        <v>7.41</v>
       </c>
       <c r="E5" t="n">
         <v>11.11</v>
       </c>
       <c r="F5" t="n">
-        <v>14.81</v>
+        <v>11.11</v>
       </c>
       <c r="G5" t="n">
         <v>11.11</v>
       </c>
       <c r="H5" t="n">
-        <v>18.52</v>
+        <v>11.11</v>
       </c>
       <c r="I5" t="n">
-        <v>11.11</v>
+        <v>14.81</v>
       </c>
       <c r="J5" t="n">
         <v>11.11</v>
       </c>
       <c r="K5" t="n">
-        <v>7.41</v>
+        <v>14.81</v>
       </c>
       <c r="L5" t="n">
-        <v>14.81</v>
+        <v>11.11</v>
       </c>
       <c r="M5" t="n">
-        <v>14.81</v>
+        <v>18.52</v>
       </c>
       <c r="N5" t="n">
-        <v>11.11</v>
+        <v>14.81</v>
       </c>
       <c r="O5" t="n">
         <v>11.11</v>
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.04</v>
+        <v>22.22</v>
       </c>
       <c r="C6" t="n">
-        <v>18.52</v>
+        <v>22.22</v>
       </c>
       <c r="D6" t="n">
-        <v>22.22</v>
+        <v>18.52</v>
       </c>
       <c r="E6" t="n">
-        <v>22.22</v>
+        <v>14.81</v>
       </c>
       <c r="F6" t="n">
+        <v>18.52</v>
+      </c>
+      <c r="G6" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="H6" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="I6" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="J6" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.11</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="N6" t="n">
         <v>25.93</v>
       </c>
-      <c r="G6" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="H6" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="I6" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="J6" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="K6" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="L6" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="M6" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="N6" t="n">
-        <v>18.52</v>
-      </c>
       <c r="O6" t="n">
-        <v>22.22</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="7">
@@ -760,22 +760,22 @@
         <v>18.52</v>
       </c>
       <c r="C7" t="n">
-        <v>11.11</v>
+        <v>22.22</v>
       </c>
       <c r="D7" t="n">
-        <v>22.22</v>
+        <v>14.81</v>
       </c>
       <c r="E7" t="n">
-        <v>18.52</v>
+        <v>14.81</v>
       </c>
       <c r="F7" t="n">
-        <v>22.22</v>
+        <v>18.52</v>
       </c>
       <c r="G7" t="n">
         <v>22.22</v>
       </c>
       <c r="H7" t="n">
-        <v>22.22</v>
+        <v>18.52</v>
       </c>
       <c r="I7" t="n">
         <v>18.52</v>
@@ -784,19 +784,19 @@
         <v>18.52</v>
       </c>
       <c r="K7" t="n">
-        <v>18.52</v>
+        <v>22.22</v>
       </c>
       <c r="L7" t="n">
         <v>22.22</v>
       </c>
       <c r="M7" t="n">
-        <v>22.22</v>
+        <v>25.93</v>
       </c>
       <c r="N7" t="n">
-        <v>18.52</v>
+        <v>22.22</v>
       </c>
       <c r="O7" t="n">
-        <v>22.22</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="8">
@@ -806,25 +806,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.22</v>
+        <v>25.93</v>
       </c>
       <c r="C8" t="n">
-        <v>29.63</v>
+        <v>14.81</v>
       </c>
       <c r="D8" t="n">
-        <v>29.63</v>
+        <v>25.93</v>
       </c>
       <c r="E8" t="n">
-        <v>25.93</v>
+        <v>18.52</v>
       </c>
       <c r="F8" t="n">
-        <v>25.93</v>
+        <v>14.81</v>
       </c>
       <c r="G8" t="n">
-        <v>18.52</v>
+        <v>22.22</v>
       </c>
       <c r="H8" t="n">
-        <v>29.63</v>
+        <v>22.22</v>
       </c>
       <c r="I8" t="n">
         <v>29.63</v>
@@ -833,19 +833,19 @@
         <v>25.93</v>
       </c>
       <c r="K8" t="n">
-        <v>22.22</v>
+        <v>29.63</v>
       </c>
       <c r="L8" t="n">
         <v>25.93</v>
       </c>
       <c r="M8" t="n">
-        <v>25.93</v>
+        <v>29.63</v>
       </c>
       <c r="N8" t="n">
         <v>22.22</v>
       </c>
       <c r="O8" t="n">
-        <v>25.93</v>
+        <v>22.22</v>
       </c>
     </row>
     <row r="9">
@@ -855,31 +855,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.62</v>
+        <v>23.08</v>
       </c>
       <c r="C9" t="n">
-        <v>34.62</v>
+        <v>30.77</v>
       </c>
       <c r="D9" t="n">
         <v>26.92</v>
       </c>
       <c r="E9" t="n">
-        <v>26.92</v>
+        <v>30.77</v>
       </c>
       <c r="F9" t="n">
         <v>30.77</v>
       </c>
       <c r="G9" t="n">
+        <v>30.77</v>
+      </c>
+      <c r="H9" t="n">
         <v>34.62</v>
-      </c>
-      <c r="H9" t="n">
-        <v>30.77</v>
       </c>
       <c r="I9" t="n">
         <v>30.77</v>
       </c>
       <c r="J9" t="n">
-        <v>30.77</v>
+        <v>34.62</v>
       </c>
       <c r="K9" t="n">
         <v>30.77</v>
@@ -888,7 +888,7 @@
         <v>30.77</v>
       </c>
       <c r="M9" t="n">
-        <v>34.62</v>
+        <v>30.77</v>
       </c>
       <c r="N9" t="n">
         <v>30.77</v>
@@ -904,40 +904,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="D10" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="E10" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="F10" t="n">
+        <v>22.22</v>
+      </c>
+      <c r="G10" t="n">
         <v>25.93</v>
       </c>
-      <c r="C10" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="D10" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="E10" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="F10" t="n">
-        <v>22.22</v>
-      </c>
-      <c r="G10" t="n">
-        <v>22.22</v>
-      </c>
       <c r="H10" t="n">
         <v>18.52</v>
       </c>
       <c r="I10" t="n">
-        <v>11.11</v>
+        <v>18.52</v>
       </c>
       <c r="J10" t="n">
-        <v>29.63</v>
+        <v>18.52</v>
       </c>
       <c r="K10" t="n">
-        <v>14.81</v>
+        <v>18.52</v>
       </c>
       <c r="L10" t="n">
-        <v>29.63</v>
+        <v>18.52</v>
       </c>
       <c r="M10" t="n">
-        <v>22.22</v>
+        <v>18.52</v>
       </c>
       <c r="N10" t="n">
         <v>22.22</v>
@@ -956,10 +956,10 @@
         <v>22.22</v>
       </c>
       <c r="C11" t="n">
-        <v>11.11</v>
+        <v>14.81</v>
       </c>
       <c r="D11" t="n">
-        <v>14.81</v>
+        <v>11.11</v>
       </c>
       <c r="E11" t="n">
         <v>11.11</v>
@@ -968,7 +968,7 @@
         <v>11.11</v>
       </c>
       <c r="G11" t="n">
-        <v>11.11</v>
+        <v>18.52</v>
       </c>
       <c r="H11" t="n">
         <v>14.81</v>
@@ -989,10 +989,10 @@
         <v>14.81</v>
       </c>
       <c r="N11" t="n">
-        <v>14.81</v>
+        <v>11.11</v>
       </c>
       <c r="O11" t="n">
-        <v>11.11</v>
+        <v>7.41</v>
       </c>
     </row>
   </sheetData>
